--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Members</t>
+          <t>Member</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -819,1672 +819,1672 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>اي مۊشته</t>
+          <t>اي وخت</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>اي مۊشته بج مرأ فأدن</t>
+          <t>اي وخت پۊر ترأ خأستيم</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A Fistful</t>
+          <t>Once</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Give me a fistful of rice</t>
+          <t>I once wanted you so much</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اي وخت</t>
+          <t>اي ور</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>اي وخت پۊر ترأ خأستيم</t>
+          <t>أن ٚ رختان هرتأ اي ور کفته</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Once</t>
+          <t>One Corner</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>I once wanted you so much</t>
+          <t>Each one of his/her clothes lies in one corner</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اي ور</t>
+          <t>اي وري</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>أن ٚ رختان هرتأ اي ور کفته</t>
+          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>One Corner</t>
+          <t>Crooked</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Each one of his/her clothes lies in one corner</t>
+          <t>Why is this board crooked?</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اي وري</t>
+          <t>اي پئم</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
+          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Crooked</t>
+          <t>A Fistful</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Why is this board crooked?</t>
+          <t>Will you give me a fistful of sunflower seeds?</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>اي پئم</t>
+          <t>ايتأ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
+          <t>ايتأ کاغذ مرأ فأدن</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A Fistful</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Will you give me a fistful of sunflower seeds?</t>
+          <t>Give me a paper</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ايتأ</t>
+          <t>ايجانا</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ايتأ کاغذ مرأ فأدن</t>
+          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Together</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Give me a paper</t>
+          <t>Miad and I went out together</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ايجانا</t>
+          <t>ايدانه</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
+          <t>ايدانه کۊئي خأيم</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Together</t>
+          <t>One</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Miad and I went out together</t>
+          <t>I want one pumpkin</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ايدانه</t>
+          <t>ايدفأ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ايدانه کۊئي خأيم</t>
+          <t>ايدفأ بامؤم شيمي خانه</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>Once</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>I want one pumpkin</t>
+          <t>I once came to your home</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ايدفأ</t>
+          <t>ايدفأئي</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ايدفأ بامؤم شيمي خانه</t>
+          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Once</t>
+          <t>Suddenly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>I once came to your home</t>
+          <t>Nasser suddenly entered the room</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ايدفأئي</t>
+          <t>ايدقه</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
+          <t>ايدقه بئس</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Suddenly</t>
+          <t>A Minute</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nasser suddenly entered the room</t>
+          <t>Wait a minute</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ايدقه</t>
+          <t>ايرۊز</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ايدقه بئس</t>
+          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A Minute</t>
+          <t>One Day</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wait a minute</t>
+          <t>One day remains until my holidays end</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ايرۊز</t>
+          <t>ايزه</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
+          <t>ايزه بۊشۊ اۊشنتر</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>One Day</t>
+          <t>A Little Bit</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>One day remains until my holidays end</t>
+          <t>Move over a little bit</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ايزه</t>
+          <t>ايسأبيد</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ايزه بۊشۊ اۊشنتر</t>
+          <t>ديشب همه أمي خانه ايسابيد</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A Little Bit</t>
+          <t>They Were</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Move over a little bit</t>
+          <t>They were all in our house last night</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ايسأبيد</t>
+          <t>ايستۊل</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ديشب همه أمي خانه ايسابيد</t>
+          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>They Were</t>
+          <t>Chair</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>They were all in our house last night</t>
+          <t>They make chair out of wood</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ايستۊل</t>
+          <t>ايسم</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
+          <t>تي ايسم چيسه؟</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chair</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>They make chair out of wood</t>
+          <t>What's your name?</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ايسم</t>
+          <t>ايسيد؟</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>تي ايسم چيسه؟</t>
+          <t>شۊمان چن نفر ايسيد؟</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Are You?</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>What's your name?</t>
+          <t>How many people are you?</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ايسيد؟</t>
+          <t>ايسکمۊ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>شۊمان چن نفر ايسيد؟</t>
+          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Are You?</t>
+          <t>Ice Pop</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>How many people are you?</t>
+          <t>Go to the shop and buy two ice pops</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ايسکمۊ</t>
+          <t>ايشتاو</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
+          <t>هأی أمرأ ايشتاو ديهه</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ice Pop</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Go to the shop and buy two ice pops</t>
+          <t>He/She constantly warning us</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ايشتاو</t>
+          <t>ايشتاوي</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>هأی أمرأ ايشتاو ديهه</t>
+          <t>ايشتاوي چي گمه؟</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Do You Hear</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>He/She constantly warning us</t>
+          <t>Do you hear what I'm saying?</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ايشتاوي</t>
+          <t>ايششه</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ايشتاوي چي گمه؟</t>
+          <t>ايششه، لانتي</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Do You Hear</t>
+          <t>Ew</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Do you hear what I'm saying?</t>
+          <t>Ew, snake</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ايششه</t>
+          <t>ايشماردن</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ايششه، لانتي</t>
+          <t>مي زأى ايشماردنأ نأنه</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ew</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ew, snake</t>
+          <t>My kid doesn't know how to count</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ايشماردن</t>
+          <t>ايشکؤر</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>مي زأى ايشماردنأ نأنه</t>
+          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>Rice Crumbs</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>My kid doesn't know how to count</t>
+          <t>Sprinkle rice crumbs for chickens too</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ايشکؤر</t>
+          <t>ايشکنئن</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
+          <t>چي-يأ ايشکنئن دري؟</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rice Crumbs</t>
+          <t>Break</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sprinkle rice crumbs for chickens too</t>
+          <t>What are you breaking?</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ايشکنئن</t>
+          <t>ايمرۊ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>چي-يأ ايشکنئن دري؟</t>
+          <t>ايمرۊ بۊشؤم کيتابخانه</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>What are you breaking?</t>
+          <t>Today I went to the library</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ايمرۊ</t>
+          <t>اينسان</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ايمرۊ بۊشؤم کيتابخانه</t>
+          <t>اينسان بۊبۊ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Today I went to the library</t>
+          <t>Be human</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>اينسان</t>
+          <t>ايوار ايوار</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>اينسان بۊبۊ</t>
+          <t>ايوار ايوار شئطان مرأ گه . . .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Occasionally</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Be human</t>
+          <t>Occasionally, Satan tells me. . .</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ايوار ايوار</t>
+          <t>ايواردم</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ايوار ايوار شئطان مرأ گه . . .</t>
+          <t>ايواردم وا بشم بازار</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Occasionally</t>
+          <t>Once Again</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Occasionally, Satan tells me. . .</t>
+          <t>I have to go to the market once again</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ايواردم</t>
+          <t>ايوارٚکي</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ايواردم وا بشم بازار</t>
+          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Once Again</t>
+          <t>Suddenly</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>I have to go to the market once again</t>
+          <t>Suddenly say I'm not comming and get rif of yourself</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ايوارٚکي</t>
+          <t>ايپيچم</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
+          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Suddenly</t>
+          <t>I'll be aggressive</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Suddenly say I'm not comming and get rif of yourself</t>
+          <t>I'll be aggressive if you don't pay attention</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ايپيچم</t>
+          <t>ايپچه</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
+          <t>ايپچه پلا مه ره دۊکۊن</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>I'll be aggressive</t>
+          <t>A little bit</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>I'll be aggressive if you don't pay attention</t>
+          <t>Serve me a little bit of rice</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ايپچه</t>
+          <t>ايچي</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ايپچه پلا مه ره دۊکۊن</t>
+          <t>ايچي خأيم ترأ بگم</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A little bit</t>
+          <t>Something</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Serve me a little bit of rice</t>
+          <t>I want to tell you something</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ايچي</t>
+          <t>اۊتاق</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ايچي خأيم ترأ بگم</t>
+          <t>مي اۊتاق کؤيتأ ايسه؟</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Something</t>
+          <t>Room</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>I want to tell you something</t>
+          <t>Which one is my room?</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اۊتاق</t>
+          <t>اۊدۊشتن</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>مي اۊتاق کؤيتأ ايسه؟</t>
+          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Suck</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Which one is my room?</t>
+          <t>They're sucking our blood like a leech</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اۊدۊشتن</t>
+          <t>اۊرشين</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
+          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Suck</t>
+          <t>Stir</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>They're sucking our blood like a leech</t>
+          <t>I picked up wooden spoon and stir the stew</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>اۊرشين</t>
+          <t>اۊسان</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
+          <t>قاقؤشاقانأ اۊسان بأور</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Stir</t>
+          <t>Pick Up</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>I picked up wooden spoon and stir the stew</t>
+          <t>Pick up the spoons and bring them</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اۊسان</t>
+          <t>اۊسه کۊد</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>قاقؤشاقانأ اۊسان بأور</t>
+          <t>أ کيتابأ کي اۊسه کۊد؟</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pick Up</t>
+          <t>Sent</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Pick up the spoons and bring them</t>
+          <t>Who sent this book?</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>اۊسه کۊد</t>
+          <t>اۊشان</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>أ کيتابأ کي اۊسه کۊد؟</t>
+          <t>اۊشان کيسيد؟</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sent</t>
+          <t>They</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Who sent this book?</t>
+          <t>Who are they?</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>اۊشان</t>
+          <t>اۊشکؤفت</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>اۊشان کيسيد؟</t>
+          <t>آب مرأ اۊشکؤفت</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Choked</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Who are they?</t>
+          <t>I choked on water</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>اۊشکؤفت</t>
+          <t>اۊن</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>آب مرأ اۊشکؤفت</t>
+          <t>اۊن چيسه؟</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Choked</t>
+          <t>That</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>I choked on water</t>
+          <t>What is that?</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>اۊن</t>
+          <t>اۊيأ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>اۊن چيسه؟</t>
+          <t>مهين ٚ کيف اۊيأ نهأ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>Over There</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>What is that?</t>
+          <t>Mahin's Bag is over there</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>اۊيأ</t>
+          <t>اۊچين</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>مهين ٚ کيف اۊيأ نهأ</t>
+          <t>تي کيتابانأ اۊچين</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Over There</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mahin's Bag is over there</t>
+          <t>Collect your book</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>اۊچين</t>
+          <t>اۊکۊف</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>تي کيتابانأ اۊچين</t>
+          <t>أمه ره اۊکۊف دره</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Collect</t>
+          <t>Presage</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Collect your book</t>
+          <t>It has presage for us</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>اۊکۊف</t>
+          <t>أ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>أمه ره اۊکۊف دره</t>
+          <t>شۊفاژأ چأکۊدي؟</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Presage</t>
+          <t>The</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>It has presage for us</t>
+          <t>Did you repair the radiator?</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>أ</t>
+          <t>أتؤ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>شۊفاژأ چأکۊدي؟</t>
+          <t>أتؤ نيه</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>The</t>
+          <t>Like This</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Did you repair the radiator?</t>
+          <t>It's not like this</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>أتؤ</t>
+          <t>أجۊر</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>أتؤ نيه</t>
+          <t>أجۊر چي-يان مرأ حالي نيه</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Like This</t>
+          <t>Such</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>It's not like this</t>
+          <t>I don't understand such things</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>أجۊر</t>
+          <t>أذب</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>أجۊر چي-يان مرأ حالي نيه</t>
+          <t>مي برار أذبه</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Such</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>I don't understand such things</t>
+          <t>My brother is single</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>أذب</t>
+          <t>أرايم</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>مي برار أذبه</t>
+          <t>أرايم بيأ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>This Way Too</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>My brother is single</t>
+          <t>Come this way too</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>أرايم</t>
+          <t>أرسۊ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>أرايم بيأ</t>
+          <t>تي أرسۊئانأ پاکۊن</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>This Way Too</t>
+          <t>Tear</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Come this way too</t>
+          <t>Wipe your tears</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>أرسۊ</t>
+          <t>أزازيل</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>تي أرسۊئانأ پاکۊن</t>
+          <t>أ أزازيل ٚ زاکانأ فأندر</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tear</t>
+          <t>Very Naughty</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wipe your tears</t>
+          <t>Look at these very Naughty kids</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>أزازيل</t>
+          <t>أسباب</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>أ أزازيل ٚ زاکانأ فأندر</t>
+          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Very Naughty</t>
+          <t>Snack</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Look at these very Naughty kids</t>
+          <t>Should I get you some snack to eat?</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>أسباب</t>
+          <t>أشان</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
+          <t>أشان کي أمؤن دريد کيسيد؟</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>They</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Should I get you some snack to eat?</t>
+          <t>Who are they coming?</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>أشان</t>
+          <t>أشبل</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>أشان کي أمؤن دريد کيسيد؟</t>
+          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Fish Egg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Who are they coming?</t>
+          <t>They make cutlet with fish egg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>أشبل</t>
+          <t>ألؤغ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
+          <t>باغ ٚ مئن ایتأ ألؤغ بیدئم</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fish Egg</t>
+          <t>Eagle</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>They make cutlet with fish egg</t>
+          <t>I saw an eagle in the garden</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ألؤغ</t>
+          <t>ألاو</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>باغ ٚ مئن ایتأ ألؤغ بیدئم</t>
+          <t>جه وس هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eagle</t>
+          <t>Steam</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>I saw an eagle in the garden</t>
+          <t>It's too cold that steam come from our mouth</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ألاو</t>
+          <t>ألباقي</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>جه وس هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
+          <t>شير ٚ ألباقي-يأ دۊکۊن جا دۊرۊن</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Steam</t>
+          <t>Remaining</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>It's too cold that steam come from our mouth</t>
+          <t>Pour the remaining milk into the dish</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ألباقي</t>
+          <t>ألنگ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>شير ٚ ألباقي-يأ دۊکۊن جا دۊرۊن</t>
+          <t>مرأ ألنگ بزه بکفتم</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Remaining</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Pour the remaining milk into the dish</t>
+          <t>He/She tripped me and I fell</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ألنگ</t>
+          <t>أمأن</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>مرأ ألنگ بزه بکفتم</t>
+          <t>أمأن دۊ نفريم</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>We</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>He/She tripped me and I fell</t>
+          <t>We are two people</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>أمأن</t>
+          <t>أمؤن</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>أمأن دۊ نفريم</t>
+          <t>ورزشگا جأ أمؤن درم</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>We</t>
+          <t>Coming</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>We are two people</t>
+          <t>I'm coming from the stadium</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>أمؤن</t>
+          <t>أمبست</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ورزشگا جأ أمؤن درم</t>
+          <t>أ دؤغ پۊر أمبسته</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Coming</t>
+          <t>Thick</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>I'm coming from the stadium</t>
+          <t>This yogurt is very thick</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>أمبست</t>
+          <t>أمرأ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>أ دؤغ پۊر أمبسته</t>
+          <t>من تي أمرأ أيم</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Thick</t>
+          <t>With</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>This yogurt is very thick</t>
+          <t>I'm coming with you</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>أمرأ</t>
+          <t>أمي</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>من تي أمرأ أيم</t>
+          <t>شۊمانم أمي أمرأ أئيدي؟</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>With</t>
+          <t>Us</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>I'm coming with you</t>
+          <t>Are you also come with us?</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>أمي</t>
+          <t>أن</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>شۊمانم أمي أمرأ أئيدي؟</t>
+          <t>أن چيسه؟</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Us</t>
+          <t>This</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Are you also come with us?</t>
+          <t>What is this?</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>أن</t>
+          <t>أنديفه</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>أن چيسه؟</t>
+          <t>أ ساعت چارصد تۊمۊن أنديفه دأره؟</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>This</t>
+          <t>Worth</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>What is this?</t>
+          <t>Is this watch worth four handred Tomans?</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>أنديفه</t>
+          <t>أنگاره</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>أ ساعت چارصد تۊمۊن أنديفه دأره؟</t>
+          <t>چي ره أنقد أنگاره بيده-ئي؟</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Worth</t>
+          <t>Prepare</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Is this watch worth four handred Tomans?</t>
+          <t>Why did you prepare this much?</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>أنگاره</t>
+          <t>أوانگاره</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>چي ره أنقد أنگاره بيده-ئي؟</t>
+          <t>هأچين أمه ره أوانگاره بيده-ئيم</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Prepare</t>
+          <t>Trouble</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Why did you prepare this much?</t>
+          <t>We made trouble for ourselves because of nothing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>أوانگاره</t>
+          <t>أوري</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>هأچين أمه ره أوانگاره بيده-ئيم</t>
+          <t>مي کافشينأ أوري؟</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Trouble</t>
+          <t>Would You Bring</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>We made trouble for ourselves because of nothing</t>
+          <t>Would you bring me my jacket?</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>أوري</t>
+          <t>أولي</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>مي کافشينأ أوري؟</t>
+          <t>تي أولي زاکه؟</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Would You Bring</t>
+          <t>First</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Would you bring me my jacket?</t>
+          <t>Is this your first child?</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>أولي</t>
+          <t>أوير</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>تي أولي زاکه؟</t>
+          <t>مي ساعتأ أويرأ کۊدم</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>First</t>
+          <t>Lost</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Is this your first child?</t>
+          <t>I lost my watch</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>أوير</t>
+          <t>أويستي</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>مي ساعتأ أويرأ کۊدم</t>
+          <t>أشان دۊتا أويستي-يأ مأنيدي</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lost</t>
+          <t>Rival Wives</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>I lost my watch</t>
+          <t>These two look like someone's rival wives</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>أويستي</t>
+          <t>أيأ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>أشان دۊتا أويستي-يأ مأنيدي</t>
+          <t>تي کيليدانأ أيأ بنأ بۊم</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Rival Wives</t>
+          <t>Here</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>These two look like someone's rival wives</t>
+          <t>You left your keys here</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>أيأ</t>
+          <t>أياز</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>تي کيليدانأ أيأ بنأ بۊم</t>
+          <t>أياز بينيشته گۊلان ٚ سر</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Here</t>
+          <t>Dew</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>You left your keys here</t>
+          <t>There's dew on the flowers</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>أياز</t>
+          <t>أپچ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>أياز بينيشته گۊلان ٚ سر</t>
+          <t>أن خۊج أپچه</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dew</t>
+          <t>Tasteless</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>There's dew on the flowers</t>
+          <t>This wild pear is tasteless</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>أپچ</t>
+          <t>أژدم</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>أن خۊج أپچه</t>
+          <t>تي پلا أژدمه</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tasteless</t>
+          <t>Very Salty</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>This wild pear is tasteless</t>
+          <t>Your rice is very salty</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>أژدم</t>
+          <t>أکه</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>تي پلا أژدمه</t>
+          <t>أکه تأنيم بازي بۊکۊنيم؟</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Very Salty</t>
+          <t>When</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Your rice is very salty</t>
+          <t>When can we play?</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>أکه</t>
+          <t>بأور</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>أکه تأنيم بازي بۊکۊنيم؟</t>
+          <t>بۊشۊ مي کيفأ بأور</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>When</t>
+          <t>Bring It</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>When can we play?</t>
+          <t>Go Bring my bag</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>بأور</t>
+          <t>بؤبؤسته</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>بۊشۊ مي کيفأ بأور</t>
+          <t>أ پلا دئه بؤبؤسته</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Bring It</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Go Bring my bag</t>
+          <t>The rice is ready</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>أ پلا دئه بؤبؤسته</t>
+          <t>چي بؤبؤسته؟</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>Hppened</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The rice is ready</t>
+          <t>What has been happened?</t>
         </is>
       </c>
     </row>
@@ -2518,105 +2518,105 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>چي بؤبؤسته؟</t>
+          <t>مهسا مرد ٚ ره بؤبؤسته</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Hppened</t>
+          <t>Married (With a Man)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>What has been happened?</t>
+          <t>Mahsa married</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>بؤبؤسته</t>
+          <t>بؤرسفته</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>مهسا مرد ٚ ره بؤبؤسته</t>
+          <t>مي کيف ٚ بند بؤرسفته</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Married (With a Man)</t>
+          <t>Torn</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mahsa married</t>
+          <t>My bag's handle is torn</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>بؤرسفته</t>
+          <t>بؤرسن</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>مي کيف ٚ بند بؤرسفته</t>
+          <t>دئه بؤرسن</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Torn</t>
+          <t>Stop</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>My bag's handle is torn</t>
+          <t>Stop it</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>بؤرسن</t>
+          <t>بؤق</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>دئه بؤرسن</t>
+          <t>ماشين ٚ شيشه بؤق بۊکۊده</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Stop</t>
+          <t>Steam</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Stop it</t>
+          <t>Car's glass has been steamed</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>بؤق</t>
+          <t>بئس</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ماشين ٚ شيشه بؤق بۊکۊده</t>
+          <t>ايمشبأ أمي خانه بئس</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Steam</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Car's glass has been steamed</t>
+          <t>Stay in our house tonight</t>
         </is>
       </c>
     </row>
@@ -2628,259 +2628,259 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ايمشبأ أمي خانه بئس</t>
+          <t>ايپچه بئس</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>Wait</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Stay in our house tonight</t>
+          <t>Wait a little bit</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>بئس</t>
+          <t>بئگان</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ايپچه بئس</t>
+          <t>هۊيأ بئگان</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wait</t>
+          <t>Throw</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Wait a little bit</t>
+          <t>Throw it there</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>بئگان</t>
+          <t>باتم</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>هۊيأ بئگان</t>
+          <t>آخربسر خۊ باتمأ فأرسأ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Throw</t>
+          <t>Comeuppance</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Throw it there</t>
+          <t>He/She got his/her comeuppance in the end</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>باتم</t>
+          <t>بار بامؤئيد</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>آخربسر خۊ باتمأ فأرسأ</t>
+          <t>گيلکان نترس بار بامؤئيد</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Comeuppance</t>
+          <t>Are Trained</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>He/She got his/her comeuppance in the end</t>
+          <t>Gileks are trained to be brave</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>بار بامؤئيد</t>
+          <t>باش</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>گيلکان نترس بار بامؤئيد</t>
+          <t>خۊ پيله برارأ باشه</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Are Trained</t>
+          <t>Dominant</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Gileks are trained to be brave</t>
+          <t>He/She is dominant over his/her older brother</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>باش</t>
+          <t>باقي بمأنسته</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>خۊ پيله برارأ باشه</t>
+          <t>أن ٚ باقي بمانسته  ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Dominant</t>
+          <t>Remaining</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>He/She is dominant over his/her older brother</t>
+          <t>What shuld I do with the remaining?</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>باقي بمأنسته</t>
+          <t>بال</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته ٰ چي بۊکۊنم؟</t>
+          <t>مي بالأ بيگير</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Remaining</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>What shuld I do with the remaining?</t>
+          <t>Take my hand</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>بال</t>
+          <t>بال زئن</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>مي بالأ بيگير</t>
+          <t>أن ٚ پئر أنأ بال بزه</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Support</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Take my hand</t>
+          <t>His/her father supported him/her</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>بال زئن</t>
+          <t>بالاخا</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>أن ٚ پئر أنأ بال بزه</t>
+          <t>أمي بالاخا ويريشته</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>Stood Up</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>His/her father supported him/her</t>
+          <t>He/She stood up for us</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>بالاخا</t>
+          <t>بامؤخته</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>أمي بالاخا ويريشته</t>
+          <t>بامؤخته آدمأ همه دۊس دأريدي</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Stood Up</t>
+          <t>Polite</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>He/She stood up for us</t>
+          <t>Everyone loves a polite person</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>بامؤخته</t>
+          <t>بامؤختي</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>بامؤخته آدمأ همه دۊس دأريدي</t>
+          <t>اۊشاني کي بۊگؤفتمه بامؤختي؟</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Polite</t>
+          <t>Did You Learn</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Everyone loves a polite person</t>
+          <t>Did you learn what I said?</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>بامؤختي</t>
+          <t>ببه</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>اۊشاني کي بۊگؤفتمه بامؤختي؟</t>
+          <t>أگه أتؤ ببه</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Did You Learn</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Did you learn what I said?</t>
+          <t>If it be like this</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>أگه أتؤ ببه</t>
+          <t>من گب خبربري نۊکۊنم هرچي خأيه ببه بدأ ببه</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2902,711 +2902,711 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>If it be like this</t>
+          <t>I don't gossip whatever it is let it be</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ببه</t>
+          <t>بتپسته</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>من گب خبربري نۊکۊنم هرچي خأيه ببه بدأ ببه</t>
+          <t>يخچال أسباب ٚ جأ بتپسته-يه</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Be</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>I don't gossip whatever it is let it be</t>
+          <t>The fridge is full of things</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>بتپسته</t>
+          <t>بج</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>يخچال أسباب ٚ جأ بتپسته-يه</t>
+          <t>ايمسال بج گيرانأ بؤسته</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The fridge is full of things</t>
+          <t>Rice has become expensive this year</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>بج</t>
+          <t>بجار</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ايمسال بج گيرانأ بؤسته</t>
+          <t>أگه کاري نۊکۊنيم أمي بجاران همه دس جه شيدي</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Rice Field</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Rice has become expensive this year</t>
+          <t>If we don't do anything all of our rice fields will be gone</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>بجار</t>
+          <t>بجارکار</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>أگه کاري نۊکۊنيم أمي بجاران همه دس جه شيدي</t>
+          <t>بجارکار کۊدن دره</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rice Field</t>
+          <t>Farming (on Rice Field)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>If we don't do anything all of our rice fields will be gone</t>
+          <t>He/She is farming on the rice field</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>بجارکار</t>
+          <t>بجاوسته</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>بجارکار کۊدن دره</t>
+          <t>کي خۊ بجاوسته آدامسأ تاودأ خيابان ٚ دۊرۊن؟</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Farming (on Rice Field)</t>
+          <t>Chewed</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>He/She is farming on the rice field</t>
+          <t>Who threw his/her chewed gum in the street?</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>بجاوسته</t>
+          <t>بجسته</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>کي خۊ بجاوسته آدامسأ تاودأ خيابان ٚ دۊرۊن؟</t>
+          <t>مي دس ٚ رگ بجسته</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Chewed</t>
+          <t>Prominent</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Who threw his/her chewed gum in the street?</t>
+          <t>The veins on my hand got prominent</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>بجسته</t>
+          <t>بخألي</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>مي دس ٚ رگ بجسته</t>
+          <t>بخألي آخري سال ببه</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Prominent</t>
+          <t>I Guess</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>The veins on my hand got prominent</t>
+          <t>I guess it's the last year</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>بخألي</t>
+          <t>بدأ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>بخألي آخري سال ببه</t>
+          <t>بدأ بيدينم چي تأنم بۊکۊنم</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>I Guess</t>
+          <t>Let Me</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>I guess it's the last year</t>
+          <t>Let me see what can I do</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>بدأ</t>
+          <t>بدگيل</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>بدأ بيدينم چي تأنم بۊکۊنم</t>
+          <t>أ ويلایان چندي بدگيل ايسيد</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Let Me</t>
+          <t>Ugly</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Let me see what can I do</t>
+          <t>These villas are so ugly</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>بدگيل</t>
+          <t>برأر</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>أ ويلایان چندي بدگيل ايسيد</t>
+          <t>مي برار بۊشؤ ايجباري</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ugly</t>
+          <t>Brother</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>These villas are so ugly</t>
+          <t>My brother has gone to military</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>برأر</t>
+          <t>برار زن</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>مي برار بۊشؤ ايجباري</t>
+          <t>أفشين ٚ برارزن مي ريفئقه</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Brother</t>
+          <t>Sister in Law (Brother's Wife)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>My brother has gone to military</t>
+          <t>Afshin's sister in law is my friend</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>برار زن</t>
+          <t>برارزا</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>أفشين ٚ برارزن مي ريفئقه</t>
+          <t>مي برارزا بۊشؤ مٚدٚرسه</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sister in Law (Brother's Wife)</t>
+          <t>Nephew/Niece (Brother's Child)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Afshin's sister in law is my friend</t>
+          <t>My nephew has gone to school</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>برارزا</t>
+          <t>بردن</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>مي برارزا بۊشؤ مٚدٚرسه</t>
+          <t>تقي زن ببرده</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Nephew/Niece (Brother's Child)</t>
+          <t>Married (With Woman)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>My nephew has gone to school</t>
+          <t>Taghi married</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>بردن</t>
+          <t>برسه</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>تقي زن ببرده</t>
+          <t>أ خۊرمالۊئان برسه</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Married (With Woman)</t>
+          <t>Ripe</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Taghi married</t>
+          <t>These persimmons are ripe</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>برسه</t>
+          <t>بزن بزن</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>أ خۊرمالۊئان برسه</t>
+          <t>ديرۊ أمي کۊچه سر بزن بزن بۊ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ripe</t>
+          <t>Fight</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>These persimmons are ripe</t>
+          <t>There was a fight in our alley yesterday</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>بزن بزن</t>
+          <t>بسته</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ديرۊ أمي کۊچه سر بزن بزن بۊ</t>
+          <t>بسته کۊني؟</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Fight</t>
+          <t>Bet</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>There was a fight in our alley yesterday</t>
+          <t>Do you bet?</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>بسته</t>
+          <t>بسر تأودأ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>بسته کۊني؟</t>
+          <t>مأمد مرأ بسر تأودأ بشم بانک</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Bet</t>
+          <t>Reminded me</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Do you bet?</t>
+          <t>Mohammed reminded me to go to the bank</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>بسر تأودأ</t>
+          <t>بسر دکفتم</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>مأمد مرأ بسر تأودأ بشم بانک</t>
+          <t>بسر دکفتم ايمسال بشم دانشگا</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Reminded me</t>
+          <t>I Decided</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Mohammed reminded me to go to the bank</t>
+          <t>I decided to go to university this year</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>بسر دکفتم</t>
+          <t>بسچي</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>بسر دکفتم ايمسال بشم دانشگا</t>
+          <t>بسچي کي أيم</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>I Decided</t>
+          <t>Definitely</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>I decided to go to university this year</t>
+          <t>I'll definitely come</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>بسچي</t>
+          <t>بشکفت</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>بسچي کي أيم</t>
+          <t>ورف ٚ سينگيني جأ أ دار بشکفت</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Definitely</t>
+          <t>Broke</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>I'll definitely come</t>
+          <t>Because of heavy snow this tree broke</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>بشکفت</t>
+          <t>بل</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ورف ٚ سينگيني جأ أ دار بشکفت</t>
+          <t>أن ٚ بل بل ٚ گۊشأ فأندر</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Broke</t>
+          <t>Protruding</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Because of heavy snow this tree broke</t>
+          <t>Look at his/her protruding ears</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>بل</t>
+          <t>بمأنستم</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>أن ٚ بل بل ٚ گۊشأ فأندر</t>
+          <t>دئه بمأنستم</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Protruding</t>
+          <t>I'm Exhausted</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Look at his/her protruding ears</t>
+          <t>I'm exhausted</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>بمأنستم</t>
+          <t>بمأنسته</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>دئه بمأنستم</t>
+          <t>أ نان بمانسته-يه</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>I'm Exhausted</t>
+          <t>Stale</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>I'm exhausted</t>
+          <t>This bread is stale</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>بمأنسته</t>
+          <t>بمرده</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>أ نان بمانسته-يه</t>
+          <t>کؤرؤنا وأسي دأني چن نفر بمرده؟</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Stale</t>
+          <t>Dead</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>This bread is stale</t>
+          <t>Do you know how many people are dead because of Corona?</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>بمرده</t>
+          <t>بنأ اۊسان</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>کؤرؤنا وأسي دأني چن نفر بمرده؟</t>
+          <t>آدم وا خۊ بنأ اۊسانأ بدأنه</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Dead</t>
+          <t>Lifestyle</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Do you know how many people are dead because of Corona?</t>
+          <t>One must know his/her own lifestyle</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>بنأ اۊسان</t>
+          <t>بندام</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>آدم وا خۊ بنأ اۊسانأ بدأنه</t>
+          <t>بندام ٚ آدم ٚ مرأ نوأسي نيشتن</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lifestyle</t>
+          <t>Infamous</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>One must know his/her own lifestyle</t>
+          <t>Should not communicate with the infamous person</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>بندام</t>
+          <t>بنماسته</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>بندام ٚ آدم ٚ مرأ نوأسي نيشتن</t>
+          <t>خؤرأ أمرأ بنماسته</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Infamous</t>
+          <t>Showed</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Should not communicate with the infamous person</t>
+          <t>He/She showed himself/herself to us</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>بنماسته</t>
+          <t>بنه</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>خؤرأ أمرأ بنماسته</t>
+          <t>تي ماشينأ هأيأ بنه</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Showed</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>He/She showed himself/herself to us</t>
+          <t>Leave your car right here</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>بنه</t>
+          <t>به</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>تي ماشينأ هأيأ بنه</t>
+          <t>أ راديؤ چأکۊده به؟</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Will Be</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Leave your car right here</t>
+          <t>Will this radio be fixed?</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>به</t>
+          <t>به زرف</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>أ راديؤ چأکۊده به؟</t>
+          <t>پئله-يأ به زرف بزه زيمين بشکنه</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Will Be</t>
+          <t>Very Hard</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Will this radio be fixed?</t>
+          <t>He/She throw the saucer very hard on the ground and broke it</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>به زرف</t>
+          <t>به فسکأ دأ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>پئله-يأ به زرف بزه زيمين بشکنه</t>
+          <t>أمرأ به فسکأ دأ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Very Hard</t>
+          <t>Exposed</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>He/She throw the saucer very hard on the ground and broke it</t>
+          <t>He/She exposed us</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>به فسکأ دأ</t>
+          <t>بي</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>أمرأ به فسکأ دأ</t>
+          <t>تۊ ناصر ٚ أمرأ بي</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Exposed</t>
+          <t>You Whre</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>He/She exposed us</t>
+          <t>You where with Naser</t>
         </is>
       </c>
     </row>
@@ -3618,501 +3618,501 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>تۊ ناصر ٚ أمرأ بي</t>
+          <t>مي أمرأ ريفئقأ بي؟</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>You Whre</t>
+          <t>Will You</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>You where with Naser</t>
+          <t>Will you be my friend?</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>بي</t>
+          <t>بي شناق</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>مي أمرأ ريفئقأ بي؟</t>
+          <t>بعضي-يان پۊر بي شناقيد</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Will You</t>
+          <t>Ungrateful</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Will you be my friend?</t>
+          <t>Some people are very ungrateful</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>بي شناق</t>
+          <t>بي پا</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>بعضي-يان پۊر بي شناقيد</t>
+          <t>گيلان ٚ بجاران همه بي پا بؤستن دره</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ungrateful</t>
+          <t>Destroyed</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Some people are very ungrateful</t>
+          <t>All of Gilan's rice fields are being destroyed</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>بي پا</t>
+          <t>بي پۊشت</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>گيلان ٚ بجاران همه بي پا بؤستن دره</t>
+          <t>خۊدا بۊکۊنه هي کس بي پۊشت نبه</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Destroyed</t>
+          <t>Alone</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>All of Gilan's rice fields are being destroyed</t>
+          <t>May no one be alone</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>بي پۊشت</t>
+          <t>بي چنگ ؤ مۊشت</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>خۊدا بۊکۊنه هي کس بي پۊشت نبه</t>
+          <t>آدم نوأ بي چنگ ؤ مۊشت ببه</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Alone</t>
+          <t>Incapable</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>May no one be alone</t>
+          <t>One must not be incapable</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>بي چنگ ؤ مۊشت</t>
+          <t>بياره</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>آدم نوأ بي چنگ ؤ مۊشت ببه</t>
+          <t>هرکي وا بياره خۊ گبأ بزنه</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Incapable</t>
+          <t>Dare</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>One must not be incapable</t>
+          <t>Everyone should dare to tell his/her words</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>بياره</t>
+          <t>بيافتي</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>هرکي وا بياره خۊ گبأ بزنه</t>
+          <t>وأمج ولکي بيافتي</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Dare</t>
+          <t>You Found It</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Everyone should dare to tell his/her words</t>
+          <t>Search it maybe you found it</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>بيافتي</t>
+          <t>بيبيشته</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>وأمج ولکي بيافتي</t>
+          <t>بيبيشته بج خأيم</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>You Found It</t>
+          <t>Fried</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Search it maybe you found it</t>
+          <t>I want fried rice</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>بيبيشته</t>
+          <t>بيجير</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>بيبيشته بج خأيم</t>
+          <t>بيأ بيجير</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fried</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>I want fried rice</t>
+          <t>Come down</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>بيجير</t>
+          <t>بيرۊن</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>بيأ بيجير</t>
+          <t>بۊشۊ بيرۊن</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Come down</t>
+          <t>Get out</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>بيرۊن</t>
+          <t>بيسپاردم</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>بۊشۊ بيرۊن</t>
+          <t>مرجانأ بيسپاردم</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>I Assigned</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Get out</t>
+          <t>I assigned Marjan</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>بيسپاردم</t>
+          <t>بينا کۊده</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>مرجانأ بيسپاردم</t>
+          <t>سعيد ديرۊ تا هسأ بينا کۊده درز خأندن</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>I Assigned</t>
+          <t>Started</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>I assigned Marjan</t>
+          <t>Saeed started to study from yesterday until now</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>بينا کۊده</t>
+          <t>بينيش</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>سعيد ديرۊ تا هسأ بينا کۊده درز خأندن</t>
+          <t>أيأ بينيش</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Started</t>
+          <t>Sit Down</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Saeed started to study from yesterday until now</t>
+          <t>Sit down Here</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>بينيش</t>
+          <t>بينيويشته-کس</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>أيأ بينيش</t>
+          <t>أ کيتاب ٚ بينيويشته-کس کيسه؟</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sit Down</t>
+          <t>Writer</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Sit down Here</t>
+          <t>Who is the writer of this book?</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>بينيويشته-کس</t>
+          <t>بيچه-ئي</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>أ کيتاب ٚ بينيويشته-کس کيسه؟</t>
+          <t>اۊ کۊنۊسأ بيچه-ئي؟</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Writer</t>
+          <t>Pick</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Who is the writer of this book?</t>
+          <t>Did you pick that common medlar?</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>بيچه-ئي</t>
+          <t>بيگيفت</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>اۊ کۊنۊسأ بيچه-ئي؟</t>
+          <t>مي پۊلأ بيگيفت</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pick</t>
+          <t>Took</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Did you pick that common medlar?</t>
+          <t>He/She took my money</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>بيگيفت</t>
+          <t>بٚسٚر</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>مي پۊلأ بيگيفت</t>
+          <t>چار ما بسر وا بشم پاریس</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Took</t>
+          <t>In Between</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>He/She took my money</t>
+          <t>Four months in between I have to go to Paris</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>بٚسٚر</t>
+          <t>بچمسته</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>چار ما بسر وا بشم پاریس</t>
+          <t>أنقد بجارکار بۊکۊدد أشان ٚ کمر بچمسته دأره</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>In Between</t>
+          <t>Bent</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Four months in between I have to go to Paris</t>
+          <t>They worked too much in the rice fields that their backs got bent</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>بچمسته</t>
+          <t>بچنگأ دأ</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>أنقد بجارکار بۊکۊدد أشان ٚ کمر بچمسته دأره</t>
+          <t>خۊ پۊلانأ همهˈ بچنگأ دأ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bent</t>
+          <t>He/She Lost</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>They worked too much in the rice fields that their backs got bent</t>
+          <t>He/She lost all his/her money</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>بچنگأ دأ</t>
+          <t>بچکسته</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>خۊ پۊلانأ همهˈ بچنگأ دأ</t>
+          <t>کارن بچکسته فني کاران ٚ ره</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>He/She Lost</t>
+          <t>Worthy</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>He/She lost all his/her money</t>
+          <t>Karen is worthy for technical work</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>بچکسته</t>
+          <t>بچۊک</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>کارن بچکسته فني کاران ٚ ره</t>
+          <t>وحيدأ بيدئم بچۊک نيشته بۊ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Worthy</t>
+          <t>Squat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Karen is worthy for technical work</t>
+          <t>I saw Vahid was sitting in squat</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>بچۊک</t>
+          <t>بکأشته</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>وحيدأ بيدئم بچۊک نيشته بۊ</t>
+          <t>أ گۊلانأ حسن بکأشته</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Squat</t>
+          <t>He/She Planted</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>I saw Vahid was sitting in squat</t>
+          <t>Hasan planted these flowers</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>بکأشته</t>
+          <t>بکشه-ئي</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>أ گۊلانأ حسن بکأشته</t>
+          <t>چي بکشه-ئي؟</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>He/She Planted</t>
+          <t>You Drew</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Hasan planted these flowers</t>
+          <t>What did you draw?</t>
         </is>
       </c>
     </row>
@@ -4124,743 +4124,743 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>چي بکشه-ئي؟</t>
+          <t>أشانأ بکشه-ئي</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>You Drew</t>
+          <t>You Weighed</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>What did you draw?</t>
+          <t>You weighed these</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>بکشه-ئي</t>
+          <t>بکفت</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>أشانأ بکشه-ئي</t>
+          <t>زأی دار ٚ جه بکفت</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>You Weighed</t>
+          <t>He/She Fell</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>You weighed these</t>
+          <t>The kid fell from the tree</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>بکفت</t>
+          <t>بکفته راشي</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>زأی دار ٚ جه بکفت</t>
+          <t>أرأ شؤن نوأ بکفته راشي-يه</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>He/She Fell</t>
+          <t>Abandoned Road</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>The kid fell from the tree</t>
+          <t>Don't go this way it is an abandoned road</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>بکفته راشي</t>
+          <t>بگردستيد</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>أرأ شؤن نوأ بکفته راشي-يه</t>
+          <t>أول أمرأ بگردستيد</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Abandoned Road</t>
+          <t>They Inspected</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Don't go this way it is an abandoned road</t>
+          <t>They inspected us first</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>بگردستيد</t>
+          <t>بگشت</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>أول أمرأ بگردستيد</t>
+          <t>نأنم چي مرأ بگشت</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>They Inspected</t>
+          <t>Bit</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>They inspected us first</t>
+          <t>I don't know what bit me?</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>بگشت</t>
+          <t>بگنسته</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>نأنم چي مرأ بگشت</t>
+          <t>آغۊز بگنسته مي سرأ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Bit</t>
+          <t>Hit</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>I don't know what bit me?</t>
+          <t>Walnut hit my head</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>بگنسته</t>
+          <t>بگيلأ کۊن</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>آغۊز بگنسته مي سرأ</t>
+          <t>أ گبانأ هأيأ بگيلأ کۊن</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Hit</t>
+          <t>Bury</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Walnut hit my head</t>
+          <t>Bury these words right here</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>بگيلأ کۊن</t>
+          <t>بۊ</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>أ گبانأ هأيأ بگيلأ کۊن</t>
+          <t>تي کار بۊ؟</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bury</t>
+          <t>Was/Were</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Bury these words right here</t>
+          <t>Was it your job?</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>بۊ</t>
+          <t>بۊجؤر</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>تي کار بۊ؟</t>
+          <t>بۊشۊ بۊجؤر</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Was/Were</t>
+          <t>‌Up</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Was it your job?</t>
+          <t>Go up</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>بۊجؤر</t>
+          <t>بۊجؤر اۊتاق</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>بۊشۊ بۊجؤر</t>
+          <t>زاکانأ ببر بۊجؤر اۊتاق</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>‌Up</t>
+          <t>The Room Upstairs</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Go up</t>
+          <t>Take the kids to the room the upstairs</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>بۊجؤر اۊتاق</t>
+          <t>بۊخۊس</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>زاکانأ ببر بۊجؤر اۊتاق</t>
+          <t>دئره، بۊشۊ بۊخۊس</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>The Room Upstairs</t>
+          <t>Sleep</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Take the kids to the room the upstairs</t>
+          <t>It's late, go to sleep</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>بۊخۊس</t>
+          <t>بۊدۊج</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>دئره، بۊشۊ بۊخۊس</t>
+          <t>تأني مي پرهنأ بۊدۊجي؟</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Sleep</t>
+          <t>Sew</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>It's late, go to sleep</t>
+          <t>Can you sew my shirt?</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>بۊدۊج</t>
+          <t>بۊدۊرۊن</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>تأني مي پرهنأ بۊدۊجي؟</t>
+          <t>بۊشۊ بۊدۊرۊن</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Sew</t>
+          <t>Inside</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Can you sew my shirt?</t>
+          <t>Go inside</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>بۊدۊرۊن</t>
+          <t>بۊرۊز</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>بۊشۊ بۊدۊرۊن</t>
+          <t>تي فسکأ بۊرۊز دأن نوأ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Inside</t>
+          <t>Reveal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Go inside</t>
+          <t>Don't reveal your secret</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>بۊرۊز</t>
+          <t>بۊز</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>تي فسکأ بۊرۊز دأن نوأ</t>
+          <t>مي پا بۊز مرأ در کۊنه</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Reveal</t>
+          <t>Heel</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Don't reveal your secret</t>
+          <t>The heel of my foot hurts</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>بۊز</t>
+          <t>بۊسۊجانه</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>مي پا بۊز مرأ در کۊنه</t>
+          <t>غذايأ همهˈ بۊسۊجانه</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Heel</t>
+          <t>Burned</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>The heel of my foot hurts</t>
+          <t>He/She burned all the food</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>بۊسۊجانه</t>
+          <t>بۊشؤستم</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>غذايأ همهˈ بۊسۊجانه</t>
+          <t>تي رختانأ بۊشؤستم</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Burned</t>
+          <t>I Washed</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>He/She burned all the food</t>
+          <t>I washed your clothes</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>بۊشؤستم</t>
+          <t>بۊفۊرؤختم</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>تي رختانأ بۊشؤستم</t>
+          <t>مي گۊشي-يأ تازگي-يان بۊفرؤختم</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>I Washed</t>
+          <t>I Sold</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>I washed your clothes</t>
+          <t>I sold my phone recently</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>بۊفۊرؤختم</t>
+          <t>بۊچۊلکسته</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>مي گۊشي-يأ تازگي-يان بۊفرؤختم</t>
+          <t>أمي باغچه گۊلان بۊچۊلکسته</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>I Sold</t>
+          <t>Withered</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>I sold my phone recently</t>
+          <t>Our garden's flowers have withered</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>بۊچۊلکسته</t>
+          <t>بۊک بۊکۊده</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>أمي باغچه گۊلان بۊچۊلکسته</t>
+          <t>ايمرۊ چي ره بۊک بۊکۊده-ئي؟</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Withered</t>
+          <t>Despondent</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Our garden's flowers have withered</t>
+          <t>Why are you despondent today?</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>بۊک بۊکۊده</t>
+          <t>بۊکۊشيد</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ايمرۊ چي ره بۊک بۊکۊده-ئي؟</t>
+          <t>أشان خأئيد همه  ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Despondent</t>
+          <t>Kill</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Why are you despondent today?</t>
+          <t>They want to kill everybody</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>بۊکۊشيد</t>
+          <t>بۊگرؤختيم</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه ٰ بۊکۊشيد</t>
+          <t>صابخانه کي بامؤ أمان بۊگرؤختيم</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Kill</t>
+          <t>We Ran Away</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>They want to kill everybody</t>
+          <t>When the house owner came we ran away</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>بۊگرؤختيم</t>
+          <t>بۊگۊ بيشتاو</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>صابخانه کي بامؤ أمان بۊگرؤختيم</t>
+          <t>شيمي بۊگۊ بيشتاوأ نيشتاوستم</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>We Ran Away</t>
+          <t>Conversation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>When the house owner came we ran away</t>
+          <t>I didn't hear your conversation</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>بۊگۊ بيشتاو</t>
+          <t>بۊگۊ مۊگۊ</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>شيمي بۊگۊ بيشتاوأ نيشتاوستم</t>
+          <t>مي دۊماغ خارش کۊنه بۊگۊ مۊگۊيه</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Conversation</t>
+          <t>Gossiping</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>I didn't hear your conversation</t>
+          <t>My nose itches someone gossiping about me</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>بۊگۊ مۊگۊ</t>
+          <t>پئر</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>مي دۊماغ خارش کۊنه بۊگۊ مۊگۊيه</t>
+          <t>مي پئر بۊشؤ کار ٚ سر</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Gossiping</t>
+          <t>Father</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>My nose itches someone gossiping about me</t>
+          <t>My father went to work</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>پئر</t>
+          <t>پئر ؤ مأر</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>مي پئر بۊشؤ کار ٚ سر</t>
+          <t>مي پئر ؤ مأر بخانه نئسائيد</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Father</t>
+          <t>Parents</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>My father went to work</t>
+          <t>My parents aren't home</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>پئر ؤ مأر</t>
+          <t>پئر ٚ زن</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>مي پئر ؤ مأر بخانه نئسائيد</t>
+          <t>همه-تا پئر ٚ زنان کي بد ني-ئيد</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Parents</t>
+          <t>Step Mother</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>My parents aren't home</t>
+          <t>Not all step mothers are bad</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>پئر ٚ زن</t>
+          <t>پئله</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>همه-تا پئر ٚ زنان کي بد ني-ئيد</t>
+          <t>چائي-يأ دۊکۊن پئله دۊرۊن</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Step Mother</t>
+          <t>Saucer</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Not all step mothers are bad</t>
+          <t>Pour the tea inside the saucer</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>پئله</t>
+          <t>پئنج</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>چائي-يأ دۊکۊن پئله دۊرۊن</t>
+          <t>پئنج تا نان خأيم</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Saucer</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Pour the tea inside the saucer</t>
+          <t>I want five breads</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>پئنج</t>
+          <t>پئنجا</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>پئنج تا نان خأيم</t>
+          <t>زري-يم خۊ پئنجا ريالأ فأدأ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Five</t>
+          <t>Fifty</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>I want five breads</t>
+          <t>Zary also paid her own fifty Rials</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>پئنجا</t>
+          <t>پا تۊک</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>زري-يم خۊ پئنجا ريالأ فأدأ</t>
+          <t>تي پا تۊک ٚ سر بئس خانه دۊرۊنأ فأندر</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Fifty</t>
+          <t>Toe</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Zary also paid her own fifty Rials</t>
+          <t>Stand on your toes and look inside the house</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>پا تۊک</t>
+          <t>پابرانده</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>تي پا تۊک ٚ سر بئس خانه دۊرۊنأ فأندر</t>
+          <t>پابرانده صارا شؤن نوأ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Toe</t>
+          <t>Barefoot</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Stand on your toes and look inside the house</t>
+          <t>Don't go in the yard barefoot</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>پابرانده</t>
+          <t>پاخت</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>پابرانده صارا شؤن نوأ</t>
+          <t>مي دۊماغ پاخته</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Barefoot</t>
+          <t>Wide</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Don't go in the yard barefoot</t>
+          <t>My nose is wide</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>پاخت</t>
+          <t>پادۊش</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>مي دۊماغ پاخته</t>
+          <t>أشن پادۊش ٚ جأ کفش چأکۊنيد</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Wide</t>
+          <t>Leather</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>My nose is wide</t>
+          <t>They make shoes from leather</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته  ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره  ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره   ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله  ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله  ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Dislocated (Body Members)</t>
+          <t>Dislocated</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه  ٰ چارکۊنج واوين</t>
+          <t>پارچه   ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه ٰ بيدئي؟</t>
+          <t>چمچه  ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8937,572 +8937,572 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>حأيوان</t>
+          <t>چۊچۊل</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>حأيوانانأ سربسر نهأن نوأ</t>
+          <t>چۊچۊل دار ٚ جأ جؤر شؤن دره</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Animal</t>
+          <t>Lizard</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Do not disturb animals</t>
+          <t>The lizard is climbing a tree</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>حئيقت</t>
+          <t>حأيوان</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>حئيقت گي؟</t>
+          <t>حأيوانانأ سربسر نهأن نوأ</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>For Real</t>
+          <t>Animal</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Are you telling this for real?</t>
+          <t>Do not disturb animals</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>حق ٚ سأى</t>
+          <t>حئيقت</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>تي حق ٚ سأيأ بۊکۊن آخربسر چأکۊده به</t>
+          <t>حئيقت گي؟</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>For Real</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Try and finally it will be ok</t>
+          <t>Are you telling this for real?</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>خألي</t>
+          <t>حق ٚ سأى</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>اۊنقد کار بۊکۊدم خألي بيس تۊمۊن مرأ فأدأ</t>
+          <t>تي حق ٚ سأيأ بۊکۊن آخربسر چأکۊده به</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Only</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>I worked so much but he/she only gave me twenty Tomans</t>
+          <t>Try and finally it will be ok</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>خأندن</t>
+          <t>خألي</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>کيتاب خأندن درم</t>
+          <t>اۊنقد کار بۊکۊدم خألي بيس تۊمۊن مرأ فأدأ</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Read</t>
+          <t>Only</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>I'm reading the book</t>
+          <t>I worked so much but he/she only gave me twenty Tomans</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>خأيه</t>
+          <t>خأندن</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>کي خأيه بأيه؟</t>
+          <t>کيتاب خأندن درم</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Wants</t>
+          <t>Read</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Who wants to come?</t>
+          <t>I'm reading the book</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>خؤرم</t>
+          <t>خأيه</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>علي خؤرم زأکه</t>
+          <t>کي خأيه بأيه؟</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Wants</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Ali is a good kid</t>
+          <t>Who wants to come?</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>خؤرنه</t>
+          <t>خؤرم</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>أنقد خؤرنه کۊني کي خۊفتن نشأ</t>
+          <t>علي خؤرم زأکه</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Snoring</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>You snoring so much that no one can sleep</t>
+          <t>Ali is a good kid</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>خؤره</t>
+          <t>خؤرنه</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>خؤره بامؤ</t>
+          <t>أنقد خؤرنه کۊني کي خۊفتن نشأ</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Himself/Herself</t>
+          <t>Snoring</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>He/She came himself/herself</t>
+          <t>You snoring so much that no one can sleep</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>خؤره خؤره</t>
+          <t>خؤره</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>مي کيف ٚ بند خؤره خؤره بؤرسفت</t>
+          <t>خؤره بامؤ</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Without Any Reason</t>
+          <t>Himself/Herself</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>The handle of my bag tore without any reason</t>
+          <t>He/She came himself/herself</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>خؤشگيل</t>
+          <t>خؤره خؤره</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>أ گۊل چندر خؤشگيله</t>
+          <t>مي کيف ٚ بند خؤره خؤره بؤرسفت</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Beautiful</t>
+          <t>Without Any Reason</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>How beautiful is this flower</t>
+          <t>The handle of my bag tore without any reason</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>خاج</t>
+          <t>خؤشگيل</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ايتأ خاج هيندانه مرأ فأدن</t>
+          <t>أ گۊل چندر خؤشگيله</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>A Slice of Something</t>
+          <t>Beautiful</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Give me a slice of watermelon</t>
+          <t>How beautiful is this flower</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>خاخۊر</t>
+          <t>خاج</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>مي خاخۊر ٚ مرأ بۊشؤئيم رستۊران</t>
+          <t>ايتأ خاج هيندانه مرأ فأدن</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Sister</t>
+          <t>A Slice of Something</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>I went to the restaurant with my sister</t>
+          <t>Give me a slice of watermelon</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>خاخۊرزا</t>
+          <t>خاخۊر</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>خاخۊرزا مي شين دانشجۊيه</t>
+          <t>مي خاخۊر ٚ مرأ بۊشؤئيم رستۊران</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Nephew/Niece (Sister's Child)</t>
+          <t>Sister</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>My niece is a student</t>
+          <t>I went to the restaurant with my sister</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>خاش</t>
+          <t>خاخۊرزا</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>أ مائي پۊر خاش دأره</t>
+          <t>خاخۊرزا مي شين دانشجۊيه</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Bone</t>
+          <t>Nephew/Niece (Sister's Child)</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>This fish has a lot of bones</t>
+          <t>My niece is a student</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>خاص ٚ بخت</t>
+          <t>خاش</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>حسۊد ٚ آدم خاص ٚ بخت نيبه</t>
+          <t>أ مائي پۊر خاش دأره</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Blessed</t>
+          <t>Bone</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>The jealous person won't get blessed</t>
+          <t>This fish has a lot of bones</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>خاطر</t>
+          <t>خاص ٚ بخت</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>مرأ خاطر نأيه</t>
+          <t>حسۊد ٚ آدم خاص ٚ بخت نيبه</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Remember</t>
+          <t>Blessed</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>I don't remember</t>
+          <t>The jealous person won't get blessed</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>خاطرخا</t>
+          <t>خاطر</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>أشان دۊتا خاطرخائي دأشتيد</t>
+          <t>مرأ خاطر نأيه</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>In Love</t>
+          <t>Remember</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>These two people were in love</t>
+          <t>I don't remember</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>خال</t>
+          <t>خاطرخا</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>بپا خالانأ نشکني</t>
+          <t>أشان دۊتا خاطرخائي دأشتيد</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>In Love</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Be careful not to break the branches</t>
+          <t>These two people were in love</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>خاليواش</t>
+          <t>خال</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>خاليواش ٚ مرأ درار چأکۊنيدي</t>
+          <t>بپا خالانأ نشکني</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Marjoram</t>
+          <t>Branch</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>They make Darar with marjoram</t>
+          <t>Be careful not to break the branches</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>خبرأتر</t>
+          <t>خاليواش</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>چي خبرأتر؟</t>
+          <t>خاليواش ٚ مرأ درار چأکۊنيدي</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>What's Up</t>
+          <t>Marjoram</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>What's up?</t>
+          <t>They make Darar with marjoram</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>خبرأگير</t>
+          <t>خبرأتر</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>مؤسن ديرۊ بامؤبۊ تي خبرأگير</t>
+          <t>چي خبرأتر؟</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Asking About Someone</t>
+          <t>What's Up</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Mohsen had come yesterday and he was asking about you</t>
+          <t>What's up?</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>خرابگي</t>
+          <t>خبرأگير</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>دۊمرتبه خرابگي بۊکۊدي؟</t>
+          <t>مؤسن ديرۊ بامؤبۊ تي خبرأگير</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Messed Something Up</t>
+          <t>Asking About Someone</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>You messed up again?</t>
+          <t>Mohsen had come yesterday and he was asking about you</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>خرت ٚ خشال</t>
+          <t>خرابگي</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>اۊ خرت ٚ خشالانأ فيشأن</t>
+          <t>دۊمرتبه خرابگي بۊکۊدي؟</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Odds And Ends</t>
+          <t>Messed Something Up</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Throw away those odds and ends</t>
+          <t>You messed up again?</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>خسته</t>
+          <t>خرت ٚ خشال</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>تۊرفانأ خسته بکأشتي</t>
+          <t>اۊ خرت ٚ خشالانأ فيشأن</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Compactly</t>
+          <t>Odds And Ends</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>You planted those radishes compactly</t>
+          <t>Throw away those odds and ends</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>خفت</t>
+          <t>خسته</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>مرأ خفتأ گيره</t>
+          <t>تۊرفانأ خسته بکأشتي</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Disgust</t>
+          <t>Compactly</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>I disgust</t>
+          <t>You planted those radishes compactly</t>
         </is>
       </c>
     </row>
@@ -9514,655 +9514,655 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>دئه مي خفت بسر أمؤن دره</t>
+          <t>مرأ خفتأ گيره</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Endure</t>
+          <t>Disgust</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>I can't endure anymore</t>
+          <t>I disgust</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>خفتي</t>
+          <t>خفت</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>خفتي آدمه</t>
+          <t>دئه مي خفت بسر أمؤن دره</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Intolerant</t>
+          <t>Endure</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>He/She is intolerant</t>
+          <t>I can't endure anymore</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>خفيانگي</t>
+          <t>خفتي</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>خۊ کارانأ خفيانگي کۊنه</t>
+          <t>خفتي آدمه</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Secretly</t>
+          <t>Intolerant</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>He/She does his/her job secretly</t>
+          <t>He/She is intolerant</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>خٚرٚک</t>
+          <t>خفيانگي</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>أمي بجانأ خٚرٚکأ کۊده</t>
+          <t>خۊ کارانأ خفيانگي کۊنه</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Rice Weevil</t>
+          <t>Secretly</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>There's rice weevil in our rice</t>
+          <t>He/She does his/her job secretly</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>خکاره</t>
+          <t>خٚرٚک</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ايتأ پيله خکاره بيهين</t>
+          <t>أمي بجانأ خٚرٚکأ کۊده</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Frying Pan</t>
+          <t>Rice Weevil</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Buy a large frying pan</t>
+          <t>There's rice weevil in our rice</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>خۊ</t>
+          <t>خکاره</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>هرکي خۊ ماشين ٚ مرأ بأيه</t>
+          <t>ايتأ پيله خکاره بيهين</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Own</t>
+          <t>Frying Pan</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Anyone come with their own car</t>
+          <t>Buy a large frying pan</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>خۊج</t>
+          <t>خۊ</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>خۊج خۊري؟</t>
+          <t>هرکي خۊ ماشين ٚ مرأ بأيه</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Wild Pear</t>
+          <t>Own</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Do you eat wild pear?</t>
+          <t>Anyone come with their own car</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>خۊرانئن</t>
+          <t>خۊج</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>زاکأ دوا خۊرانئن درم</t>
+          <t>خۊج خۊري؟</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Feed</t>
+          <t>Wild Pear</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>I'm feeding medicine to the baby</t>
+          <t>Do you eat wild pear?</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>خۊرکأ</t>
+          <t>خۊرانئن</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>خۊرکأ دامان ٚ مئن زيويسته</t>
+          <t>زاکأ دوا خۊرانئن درم</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Hedgehog</t>
+          <t>Feed</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Hedgehog lives in the forest</t>
+          <t>I'm feeding medicine to the baby</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>خۊس</t>
+          <t>خۊرکأ</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>نأمم چي ره ايمرۊ خۊس کۊنمه</t>
+          <t>خۊرکأ دامان ٚ مئن زيويسته</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Cough</t>
+          <t>Hedgehog</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>I don't know why I'm coughing today</t>
+          <t>Hedgehog lives in the forest</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>خۊسانه</t>
+          <t>خۊس</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>مهين کرأ خۊ زاکأ خۊسانه</t>
+          <t>نأمم چي ره ايمرۊ خۊس کۊنمه</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Put Someone to Sleep</t>
+          <t>Cough</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Mahin is putting her baby to sleep</t>
+          <t>I don't know why I'm coughing today</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>خۊسه</t>
+          <t>خۊسانه</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>زأک ٚ ره لالائي بيگي زۊتر خۊسه</t>
+          <t>مهين کرأ خۊ زاکأ خۊسانه</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>He/She Sleeps</t>
+          <t>Put Someone to Sleep</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Sing lullaby to the baby so he/she sleeps soon</t>
+          <t>Mahin is putting her baby to sleep</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>خۊشأدم</t>
+          <t>خۊسه</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>أيأ بيأ ترأ خۊشأدم</t>
+          <t>زأک ٚ ره لالائي بيگي زۊتر خۊسه</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Kiss</t>
+          <t>He/She Sleeps</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Come here let me kiss you</t>
+          <t>Sing lullaby to the baby so he/she sleeps soon</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>خۊشانه</t>
+          <t>خۊشأدم</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>أمان أشانأ وأده نيگيفته بيم، خۊشانه بامؤبيد</t>
+          <t>أيأ بيأ ترأ خۊشأدم</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Arbitrarily</t>
+          <t>Kiss</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>We didn't invite them, they came arbitrarily</t>
+          <t>Come here let me kiss you</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>خۊشک</t>
+          <t>خۊشانه</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>سلان همه خۊشکأ بؤستده</t>
+          <t>أمان أشانأ وأده نيگيفته بيم، خۊشانه بامؤبيد</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Arbitrarily</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>All ponds have dried up</t>
+          <t>We didn't invite them, they came arbitrarily</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>خۊله</t>
+          <t>خۊشک</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>گرزه بۊشؤ خۊله مئن</t>
+          <t>سلان همه خۊشکأ بؤستده</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Hole</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>The mouse went into the hole</t>
+          <t>All ponds have dried up</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>خۊلي</t>
+          <t>خۊله</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>خۊلي-يانأ بيچه-ئي؟</t>
+          <t>گرزه بۊشؤ خۊله مئن</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Greengage</t>
+          <t>Hole</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Did you pick the greengages?</t>
+          <t>The mouse went into the hole</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>خۊمه</t>
+          <t>خۊلي</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>حجحجي أمي هره سر خۊمه بنأ</t>
+          <t>خۊلي-يانأ بيچه-ئي؟</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Greengage</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Swallow made a nest on the porch of our house</t>
+          <t>Did you pick the greengages?</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>خۊن ديمير</t>
+          <t>خۊمه</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>مي پا أنگۊشت خۊن ديمير بؤبؤسته</t>
+          <t>حجحجي أمي هره سر خۊمه بنأ</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Bruised</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>My toe got bruised</t>
+          <t>Swallow made a nest on the porch of our house</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>خۊچک</t>
+          <t>خۊن ديمير</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>أ آشتالۊ خۊچکه</t>
+          <t>مي پا أنگۊشت خۊن ديمير بؤبؤسته</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Easy Separable Seed</t>
+          <t>Bruised</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>This peach has easy separable seed</t>
+          <t>My toe got bruised</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>دأني</t>
+          <t>خۊچک</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>دأني تي برار کؤيأ ايسأ؟</t>
+          <t>أ آشتالۊ خۊچکه</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>You Know</t>
+          <t>Easy Separable Seed</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Do you know where's your brother?</t>
+          <t>This peach has easy separable seed</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>دؤجين</t>
+          <t>دأني</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ته ره دؤجين بۊکۊن</t>
+          <t>دأني تي برار کؤيأ ايسأ؟</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Choice</t>
+          <t>You Know</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Make a choice for yourself</t>
+          <t>Do you know where's your brother?</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>دؤر ٚ شر</t>
+          <t>دؤجين</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>اي نفر کرأ دؤر ٚ شر ٚ جأ أيه</t>
+          <t>ته ره دؤجين بۊکۊن</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Afar</t>
+          <t>Choice</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Someone is coming from afar</t>
+          <t>Make a choice for yourself</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>دؤرسفت</t>
+          <t>دؤر ٚ شر</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>مي زيبيل ٚ تان دؤرسفت</t>
+          <t>اي نفر کرأ دؤر ٚ شر ٚ جأ أيه</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>It Tore</t>
+          <t>Afar</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>The bottom of my bag tore</t>
+          <t>Someone is coming from afar</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>دؤوانئن</t>
+          <t>دؤرسفت</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>صؤب تا هسأ مرأ دؤوانئن دره</t>
+          <t>مي زيبيل ٚ تان دؤرسفت</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Goof Off</t>
+          <t>It Tore</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>He/She is goofing me off since morning</t>
+          <t>The bottom of my bag tore</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>دؤوستن</t>
+          <t>دؤوانئن</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>کرأ دؤوم</t>
+          <t>صؤب تا هسأ مرأ دؤوانئن دره</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Running</t>
+          <t>Goof Off</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>I'm running</t>
+          <t>He/She is goofing me off since morning</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>دؤککؤ</t>
+          <t>دؤوستن</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>دؤککؤ بۊخۊردم</t>
+          <t>کرأ دؤوم</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Surprised</t>
+          <t>Running</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>I got surprised</t>
+          <t>I'm running</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>دئر</t>
+          <t>دؤککؤ</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>مي مٚدٚرسه دئرأ بؤ</t>
+          <t>دؤککؤ بۊخۊردم</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Surprised</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>I'm late for school</t>
+          <t>I got surprised</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>دئن</t>
+          <t>دئر</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>چي دئن دري؟</t>
+          <t>مي مٚدٚرسه دئرأ بؤ</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>See</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>What are you seeing?</t>
+          <t>I'm late for school</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>دئه</t>
+          <t>دئن</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ايتأ دئه نان مرأ فأدن</t>
+          <t>چي دئن دري؟</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Another</t>
+          <t>See</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Give me another bread</t>
+          <t>What are you seeing?</t>
         </is>
       </c>
     </row>
@@ -10174,61 +10174,61 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>من دئه بازي نۊکۊنم</t>
+          <t>ايتأ دئه نان مرأ فأدن</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Anymore</t>
+          <t>Another</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>I don't play anymore</t>
+          <t>Give me another bread</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>داب</t>
+          <t>دئه</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>أن تازه دابه؟</t>
+          <t>من دئه بازي نۊکۊنم</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Method</t>
+          <t>Anymore</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Is it a new method?</t>
+          <t>I don't play anymore</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>دار</t>
+          <t>داب</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>خۊشک ٚ دار هيمه ره خؤبه</t>
+          <t>أن تازه دابه؟</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Method</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Dried trees are good for firewood</t>
+          <t>Is it a new method?</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>أ دارانأ کي وأوه؟</t>
+          <t>خۊشک ٚ دار هيمه ره خؤبه</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Who cut these trees down?</t>
+          <t>Dried trees are good for firewood</t>
         </is>
       </c>
     </row>
@@ -10719,44 +10719,44 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>دس پرأ گيفتن</t>
+          <t>دس ٚ تان</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>أمرأ دس پرأ گيفتي؟</t>
+          <t>مي دس ٚ تان مرأ خارش کۊنه</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Mock</t>
+          <t>Palm</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Are you mocking us?</t>
+          <t>My palm is itchy</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>دس ٚ تان</t>
+          <t>دس پرأ گيفتن</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>مي دس ٚ تان مرأ خارش کۊنه</t>
+          <t>أمرأ دس پرأ گيفتي؟</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Palm</t>
+          <t>Mock</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>My palm is itchy</t>
+          <t>Are you mocking us?</t>
         </is>
       </c>
     </row>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه  ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله  ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره  ٰ بۊشؤستم</t>
+          <t>سٚفره   ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره  ٰ فلگان</t>
+          <t>سٚفره   ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه  ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله ٰ وأگيران</t>
+          <t>بۊشۊ کله  ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله  ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته  ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه ٰ تأود</t>
+          <t>لپه  ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه ٰنأ بۊشؤستي؟</t>
+          <t>مئوه  ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -18771,88 +18771,88 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>مرد ٚ خاخۊرزا</t>
+          <t>مرد ٚ برار</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>مي مرد ٚ خاخۊرزا أمي خانه ايسأ</t>
+          <t>مي مرد ٚ برار ٚ خانه هأ کۊچه دۊرۊنه</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Husband's Nephew/Niece</t>
+          <t>Husband's Brother</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>My husband's niece is in our house</t>
+          <t>My husband's brother's house is in this alley</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>مرد ٚ برار</t>
+          <t>مرد ٚ برار زن</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>مي مرد ٚ برار ٚ خانه هأ کۊچه دۊرۊنه</t>
+          <t>تي مرد ٚ برار زنأ بيدئم</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>Husband's Brother</t>
+          <t>Sister in Law (Husband's Brother's Wife)</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>My husband's brother's house is in this alley</t>
+          <t>I saw your sister in law</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>مرد ٚ برار زن</t>
+          <t>مرد ٚ خاخۊر</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>تي مرد ٚ برار زنأ بيدئم</t>
+          <t>مي مرد ٚ خاخۊر بۊشؤ خارج</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Sister in Law (Husband's Brother's Wife)</t>
+          <t>Sister in Law (Husband's Sister)</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>I saw your sister in law</t>
+          <t>My sister in law went abroad</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>مرد ٚ خاخۊر</t>
+          <t>مرد ٚ خاخۊرزا</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>مي مرد ٚ خاخۊر بۊشؤ خارج</t>
+          <t>مي مرد ٚ خاخۊرزا أمي خانه ايسأ</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>Sister in Law (Husband's Sister)</t>
+          <t>Husband's Nephew/Niece</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>My sister in law went abroad</t>
+          <t>My husband's niece is in our house</t>
         </is>
       </c>
     </row>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه  ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه  ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده  ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -5537,7 +5537,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Such A Big...</t>
+          <t>Such A Big…</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>أتؤ نيه کي...</t>
+          <t>أتؤ نيه کي…</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>It's not like that...</t>
+          <t>It's not like that…</t>
         </is>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>It's Good That...</t>
+          <t>It's Good That…</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ايوار ايوار شئطان مرأ گه . . .</t>
+          <t>ايوار ايوار شئطان مرأ گه…</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Occasionally, Satan tells me. . .</t>
+          <t>Occasionally, Satan tells me…</t>
         </is>
       </c>
     </row>

--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته  ٰ چي بۊکۊنم؟</t>
+          <t>أن ٚ باقي بمانسته   ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه  ٰ بۊکۊشيد</t>
+          <t>أشان خأئيد همه   ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته  ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته   ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره   ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره    ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله  ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله   ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله  ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله   ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه   ٰ چارکۊنج واوين</t>
+          <t>پارچه    ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه  ٰ بيدئي؟</t>
+          <t>چمچه   ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه  ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه   ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله  ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله   ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره   ٰ بۊشؤستم</t>
+          <t>سٚفره    ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره   ٰ فلگان</t>
+          <t>سٚفره    ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه  ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه   ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله  ٰ وأگيران</t>
+          <t>بۊشۊ کله   ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله  ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله   ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته  ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته   ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه  ٰ تأود</t>
+          <t>لپه   ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه  ٰنأ بۊشؤستي؟</t>
+          <t>مئوه   ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه  ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه   ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه  ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه   ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده  ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده   ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -643,1320 +643,1320 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>آغۊز</t>
+          <t>آلاخان والاخان</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>آغۊز خۊري؟</t>
+          <t>آلاخان والاخاني جأ بئتره</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Homeless</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Do you eat walnut?</t>
+          <t>It is better than being homeless</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>آلاخان والاخان</t>
+          <t>آها</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>آلاخان والاخاني جأ بئتره</t>
+          <t>آها، منم أيم</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Homeless</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>It is better than being homeless</t>
+          <t>Yes, I come too</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>آها</t>
+          <t>آهين</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>آها، منم أيم</t>
+          <t>مي دۊکان آهين پۊرد ٚ ور نهأ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yes, I come too</t>
+          <t>My shop is next to the iron bridge</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>آهين</t>
+          <t>آوج</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>مي دۊکان آهين پۊرد ٚ ور نهأ</t>
+          <t>هرچي زنگ بزئم آوجأ ندأ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Iron</t>
+          <t>Answer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>My shop is next to the iron bridge</t>
+          <t>Whatever I called he/she didn't answer</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>آوج</t>
+          <t>ارجئن ارجئن</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>هرچي زنگ بزئم آوجأ ندأ</t>
+          <t>﻿کاغذانأ همهˈ ارجئن ارجئنأ کۊده</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Answer</t>
+          <t>Shred</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Whatever I called he/she didn't answer</t>
+          <t>He/She shred all the papers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ارجئن ارجئن</t>
+          <t>اي</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>﻿کاغذانأ همهˈ ارجئن ارجئنأ کۊده</t>
+          <t>اي ميليۊن تۊمۊن پۊل خأیم</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Shred</t>
+          <t>One</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>He/She shred all the papers</t>
+          <t>I need one million Tomans cash</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>اي</t>
+          <t>اي فچم</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>اي ميليۊن تۊمۊن پۊل خأیم</t>
+          <t>ترأ بيدينم اي فچم ماچي دهم</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>A Lot</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>I need one million Tomans cash</t>
+          <t>If I see you I'll give you a lot of kisses</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>اي فچم</t>
+          <t>اي وخت</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ترأ بيدينم اي فچم ماچي دهم</t>
+          <t>اي وخت پۊر ترأ خأستيم</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A Lot</t>
+          <t>Once</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>If I see you I'll give you a lot of kisses</t>
+          <t>I once wanted you so much</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>اي وخت</t>
+          <t>اي ور</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>اي وخت پۊر ترأ خأستيم</t>
+          <t>أن ٚ رختان هرتأ اي ور کفته</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Once</t>
+          <t>One Corner</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>I once wanted you so much</t>
+          <t>Each one of his/her clothes lies in one corner</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اي ور</t>
+          <t>اي وري</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>أن ٚ رختان هرتأ اي ور کفته</t>
+          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>One Corner</t>
+          <t>Crooked</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Each one of his/her clothes lies in one corner</t>
+          <t>Why is this board crooked?</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اي وري</t>
+          <t>اي پئم</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
+          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Crooked</t>
+          <t>A Fistful</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Why is this board crooked?</t>
+          <t>Will you give me a fistful of sunflower seeds?</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اي پئم</t>
+          <t>ايتأ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
+          <t>ايتأ کاغذ مرأ فأدن</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A Fistful</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Will you give me a fistful of sunflower seeds?</t>
+          <t>Give me a paper</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ايتأ</t>
+          <t>ايجانا</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ايتأ کاغذ مرأ فأدن</t>
+          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Together</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Give me a paper</t>
+          <t>Miad and I went out together</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ايجانا</t>
+          <t>ايدانه</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
+          <t>ايدانه کۊئي خأيم</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Together</t>
+          <t>One</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Miad and I went out together</t>
+          <t>I want one pumpkin</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ايدانه</t>
+          <t>ايدفأ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ايدانه کۊئي خأيم</t>
+          <t>ايدفأ بامؤم شيمي خانه</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>Once</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>I want one pumpkin</t>
+          <t>I once came to your home</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ايدفأ</t>
+          <t>ايدفأئي</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ايدفأ بامؤم شيمي خانه</t>
+          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Once</t>
+          <t>Suddenly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>I once came to your home</t>
+          <t>Nasser suddenly entered the room</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ايدفأئي</t>
+          <t>ايدقه</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
+          <t>ايدقه بئس</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Suddenly</t>
+          <t>A Minute</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nasser suddenly entered the room</t>
+          <t>Wait a minute</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ايدقه</t>
+          <t>ايرۊز</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ايدقه بئس</t>
+          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A Minute</t>
+          <t>One Day</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wait a minute</t>
+          <t>One day remains until my holidays end</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ايرۊز</t>
+          <t>ايزه</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
+          <t>ايزه بۊشۊ اۊشنتر</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>One Day</t>
+          <t>A Little Bit</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>One day remains until my holidays end</t>
+          <t>Move over a little bit</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ايزه</t>
+          <t>ايسأبيد</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ايزه بۊشۊ اۊشنتر</t>
+          <t>ديشب همه أمي خانه ايسابيد</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A Little Bit</t>
+          <t>They Were</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Move over a little bit</t>
+          <t>They were all in our house last night</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ايسأبيد</t>
+          <t>ايستۊل</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ديشب همه أمي خانه ايسابيد</t>
+          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>They Were</t>
+          <t>Chair</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>They were all in our house last night</t>
+          <t>They make chair out of wood</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ايستۊل</t>
+          <t>ايسم</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
+          <t>تي ايسم چيسه؟</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Chair</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>They make chair out of wood</t>
+          <t>What's your name?</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ايسم</t>
+          <t>ايسيد؟</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>تي ايسم چيسه؟</t>
+          <t>شۊمان چن نفر ايسيد؟</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Are You?</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>What's your name?</t>
+          <t>How many people are you?</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ايسيد؟</t>
+          <t>ايسکمۊ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>شۊمان چن نفر ايسيد؟</t>
+          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Are You?</t>
+          <t>Ice Pop</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>How many people are you?</t>
+          <t>Go to the shop and buy two ice pops</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ايسکمۊ</t>
+          <t>ايشتاو</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
+          <t>هأی أمرأ ايشتاو ديهه</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ice Pop</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Go to the shop and buy two ice pops</t>
+          <t>He/She constantly warning us</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ايشتاو</t>
+          <t>ايشتاوي</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>هأی أمرأ ايشتاو ديهه</t>
+          <t>ايشتاوي چي گمه؟</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Do You Hear</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>He/She constantly warning us</t>
+          <t>Do you hear what I'm saying?</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ايشتاوي</t>
+          <t>ايششه</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ايشتاوي چي گمه؟</t>
+          <t>ايششه، لانتي</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Do You Hear</t>
+          <t>Ew</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Do you hear what I'm saying?</t>
+          <t>Ew, snake</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ايششه</t>
+          <t>ايشماردن</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ايششه، لانتي</t>
+          <t>مي زأى ايشماردنأ نأنه</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ew</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ew, snake</t>
+          <t>My kid doesn't know how to count</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ايشماردن</t>
+          <t>ايشکؤر</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>مي زأى ايشماردنأ نأنه</t>
+          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Count</t>
+          <t>Rice Crumbs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>My kid doesn't know how to count</t>
+          <t>Sprinkle rice crumbs for chickens too</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ايشکؤر</t>
+          <t>ايشکنئن</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
+          <t>چي-يأ ايشکنئن دري؟</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Rice Crumbs</t>
+          <t>Break</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sprinkle rice crumbs for chickens too</t>
+          <t>What are you breaking?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ايشکنئن</t>
+          <t>ايمرۊ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>چي-يأ ايشکنئن دري؟</t>
+          <t>ايمرۊ بۊشؤم کيتابخانه</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Break</t>
+          <t>Today</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>What are you breaking?</t>
+          <t>Today I went to the library</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ايمرۊ</t>
+          <t>اينسان</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ايمرۊ بۊشؤم کيتابخانه</t>
+          <t>اينسان بۊبۊ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Today I went to the library</t>
+          <t>Be human</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>اينسان</t>
+          <t>ايوار ايوار</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>اينسان بۊبۊ</t>
+          <t>ايوار ايوار شئطان مرأ گه…</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Occasionally</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Be human</t>
+          <t>Occasionally, Satan tells me…</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ايوار ايوار</t>
+          <t>ايواردم</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ايوار ايوار شئطان مرأ گه…</t>
+          <t>ايواردم وا بشم بازار</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Occasionally</t>
+          <t>Once Again</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Occasionally, Satan tells me…</t>
+          <t>I have to go to the market once again</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ايواردم</t>
+          <t>ايوارٚکي</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ايواردم وا بشم بازار</t>
+          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Once Again</t>
+          <t>Suddenly</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>I have to go to the market once again</t>
+          <t>Suddenly say I'm not comming and get rif of yourself</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ايوارٚکي</t>
+          <t>ايپيچم</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
+          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Suddenly</t>
+          <t>I'll be aggressive</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Suddenly say I'm not comming and get rif of yourself</t>
+          <t>I'll be aggressive if you don't pay attention</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ايپيچم</t>
+          <t>ايپچه</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
+          <t>ايپچه پلا مه ره دۊکۊن</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>I'll be aggressive</t>
+          <t>A little bit</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>I'll be aggressive if you don't pay attention</t>
+          <t>Serve me a little bit of rice</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ايپچه</t>
+          <t>ايچي</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ايپچه پلا مه ره دۊکۊن</t>
+          <t>ايچي خأيم ترأ بگم</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A little bit</t>
+          <t>Something</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Serve me a little bit of rice</t>
+          <t>I want to tell you something</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ايچي</t>
+          <t>اۊتاق</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ايچي خأيم ترأ بگم</t>
+          <t>مي اۊتاق کؤيتأ ايسه؟</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Something</t>
+          <t>Room</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>I want to tell you something</t>
+          <t>Which one is my room?</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>اۊتاق</t>
+          <t>اۊدۊشتن</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>مي اۊتاق کؤيتأ ايسه؟</t>
+          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Suck</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Which one is my room?</t>
+          <t>They're sucking our blood like a leech</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اۊدۊشتن</t>
+          <t>اۊرشين</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
+          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Suck</t>
+          <t>Stir</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>They're sucking our blood like a leech</t>
+          <t>I picked up wooden spoon and stir the stew</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اۊرشين</t>
+          <t>اۊسان</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
+          <t>قاقؤشاقانأ اۊسان بأور</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stir</t>
+          <t>Pick Up</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>I picked up wooden spoon and stir the stew</t>
+          <t>Pick up the spoons and bring them</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>اۊسان</t>
+          <t>اۊسه کۊد</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>قاقؤشاقانأ اۊسان بأور</t>
+          <t>أ کيتابأ کي اۊسه کۊد؟</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pick Up</t>
+          <t>Sent</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Pick up the spoons and bring them</t>
+          <t>Who sent this book?</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اۊسه کۊد</t>
+          <t>اۊشان</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>أ کيتابأ کي اۊسه کۊد؟</t>
+          <t>اۊشان کيسيد؟</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sent</t>
+          <t>They</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Who sent this book?</t>
+          <t>Who are they?</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>اۊشان</t>
+          <t>اۊشکؤفت</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>اۊشان کيسيد؟</t>
+          <t>آب مرأ اۊشکؤفت</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Choked</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Who are they?</t>
+          <t>I choked on water</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>اۊشکؤفت</t>
+          <t>اۊن</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>آب مرأ اۊشکؤفت</t>
+          <t>اۊن چيسه؟</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Choked</t>
+          <t>That</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>I choked on water</t>
+          <t>What is that?</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>اۊن</t>
+          <t>اۊيأ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>اۊن چيسه؟</t>
+          <t>مهين ٚ کيف اۊيأ نهأ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>That</t>
+          <t>Over There</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>What is that?</t>
+          <t>Mahin's Bag is over there</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>اۊيأ</t>
+          <t>اۊچين</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>مهين ٚ کيف اۊيأ نهأ</t>
+          <t>تي کيتابانأ اۊچين</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Over There</t>
+          <t>Collect</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mahin's Bag is over there</t>
+          <t>Collect your book</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>اۊچين</t>
+          <t>اۊکۊف</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>تي کيتابانأ اۊچين</t>
+          <t>أمه ره اۊکۊف دره</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Collect</t>
+          <t>Presage</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Collect your book</t>
+          <t>It has presage for us</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>اۊکۊف</t>
+          <t>أ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>أمه ره اۊکۊف دره</t>
+          <t>شۊفاژأ چأکۊدي؟</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Presage</t>
+          <t>The</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>It has presage for us</t>
+          <t>Did you repair the radiator?</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>أ</t>
+          <t>أتؤ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>شۊفاژأ چأکۊدي؟</t>
+          <t>أتؤ نيه</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>The</t>
+          <t>Like This</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Did you repair the radiator?</t>
+          <t>It's not like this</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>أتؤ</t>
+          <t>أجۊر</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>أتؤ نيه</t>
+          <t>أجۊر چي-يان مرأ حالي نيه</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Like This</t>
+          <t>Such</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>It's not like this</t>
+          <t>I don't understand such things</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>أجۊر</t>
+          <t>أذب</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>أجۊر چي-يان مرأ حالي نيه</t>
+          <t>مي برار أذبه</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Such</t>
+          <t>Single</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>I don't understand such things</t>
+          <t>My brother is single</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>أذب</t>
+          <t>أرايم</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>مي برار أذبه</t>
+          <t>أرايم بيأ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>This Way Too</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>My brother is single</t>
+          <t>Come this way too</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>أرايم</t>
+          <t>أرسۊ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>أرايم بيأ</t>
+          <t>تي أرسۊئانأ پاکۊن</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>This Way Too</t>
+          <t>Tear</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Come this way too</t>
+          <t>Wipe your tears</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>أرسۊ</t>
+          <t>أزازيل</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>تي أرسۊئانأ پاکۊن</t>
+          <t>أ أزازيل ٚ زاکانأ فأندر</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tear</t>
+          <t>Very Naughty</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wipe your tears</t>
+          <t>Look at these very Naughty kids</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>أزازيل</t>
+          <t>أسباب</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>أ أزازيل ٚ زاکانأ فأندر</t>
+          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Very Naughty</t>
+          <t>Snack</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Look at these very Naughty kids</t>
+          <t>Should I get you some snack to eat?</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>أسباب</t>
+          <t>أشان</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
+          <t>أشان کي أمؤن دريد کيسيد؟</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Snack</t>
+          <t>They</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Should I get you some snack to eat?</t>
+          <t>Who are they coming?</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>أشان</t>
+          <t>أشبل</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>أشان کي أمؤن دريد کيسيد؟</t>
+          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>They</t>
+          <t>Fish Egg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Who are they coming?</t>
+          <t>They make cutlet with fish egg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>أشبل</t>
+          <t>أغۊز</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
+          <t>أغۊز خۊري؟</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fish Egg</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>They make cutlet with fish egg</t>
+          <t>Do you eat walnut?</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته   ٰ چي بۊکۊنم؟</t>
+          <t>أن ٚ باقي بمانسته    ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>آغۊز بگنسته مي سرأ</t>
+          <t>أغۊز بگنسته مي سرأ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه   ٰ بۊکۊشيد</t>
+          <t>أشان خأئيد همه    ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>أمي آغۊز دار هني پاچه</t>
+          <t>أمي أغۊز دار هني پاچه</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته   ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته    ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره    ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره     ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله   ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله    ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله   ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله    ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه    ٰ چارکۊنج واوين</t>
+          <t>پارچه     ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه   ٰ بيدئي؟</t>
+          <t>چمچه    ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>تۊ چنتا آغۊز دأري؟</t>
+          <t>تۊ چنتا أغۊز دأري؟</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>تي آغۊزان ديمه بنن</t>
+          <t>تي أغۊزان ديمه بنن</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه   ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه    ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله   ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله    ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره    ٰ بۊشؤستم</t>
+          <t>سٚفره     ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -13843,7 +13843,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>شلار</t>
+          <t>شلار دأئن</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره    ٰ فلگان</t>
+          <t>سٚفره     ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه   ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه    ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله   ٰ وأگيران</t>
+          <t>بۊشۊ کله    ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله   ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله    ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>گرزه خۊراک آغۊزه</t>
+          <t>گرزه خۊراک أغۊزه</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>گمج ٚ مئن آغۊز قاتؤق چأکۊن</t>
+          <t>گمج ٚ مئن أغۊز قاتؤق چأکۊن</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته   ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته    ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه   ٰ تأود</t>
+          <t>لپه    ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه   ٰنأ بۊشؤستي؟</t>
+          <t>مئوه    ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه   ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه    ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه   ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه    ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده   ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده    ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -988,7 +988,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nasser suddenly entered the room</t>
+          <t>Naser suddenly entered the room</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>جه وس هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
+          <t>هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>It's too cold that steam come from our mouth</t>
+          <t>It's cold that steam come from our mouth</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>گيلان ٚ بجاران همه بي پا بؤستن دره</t>
+          <t>گيلان ٚ بجاران همه بي پا بؤستن دريد</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5163,12 +5163,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>In The Weeks</t>
+          <t>Far Away</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tiger on those weeks</t>
+          <t>Take these and throw them far away</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>he's a little boy, he craves</t>
+          <t>He's a little boy, he craves</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>أ زأى چقد ترکمه-يه؟</t>
+          <t>أ زأى چندر ترکمه-يه؟</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>جه وس هوا سرده سانچؤ زئن درم</t>
+          <t>هوا سرده سانچؤ زئن درم</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>It's too cold I'm getting pneumonia</t>
+          <t>It's cold I'm getting pneumonia</t>
         </is>
       </c>
     </row>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>أيأ چقد گرمه، شه بزم</t>
+          <t>أيأ چندر گرمه، شه بزم</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (English).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (English).xlsx
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته    ٰ چي بۊکۊنم؟</t>
+          <t>أن ٚ باقي بمانسته     ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه    ٰ بۊکۊشيد</t>
+          <t>أشان خأئيد همه     ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته    ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته     ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره     ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره      ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>سجاد ؤ أکبر تۊکاپرهˈ ديبيد</t>
+          <t>فرزاد ؤ أحمد تۊکاپرهˈ ديبيد</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله    ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله     ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله    ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله     ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه     ٰ چارکۊنج واوين</t>
+          <t>پارچه      ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه    ٰ بيدئي؟</t>
+          <t>چمچه     ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه    ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه     ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله    ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله     ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره     ٰ بۊشؤستم</t>
+          <t>سٚفره      ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره     ٰ فلگان</t>
+          <t>سٚفره      ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه    ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه     ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله    ٰ وأگيران</t>
+          <t>بۊشۊ کله     ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله    ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله     ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته    ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته     ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه    ٰ تأود</t>
+          <t>لپه     ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه    ٰنأ بۊشؤستي؟</t>
+          <t>مئوه     ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه    ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه     ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه    ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه     ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -20932,7 +20932,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>اۊن چیسه تي دينأ وأسئن دري؟</t>
+          <t>اۊن چیسه تي ديمأ وأسئن دري؟</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده    ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده     ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -21614,7 +21614,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>مي اينستا ولگأ دأري؟</t>
+          <t>مي اينستاگرام ولگأ دأري؟</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
